--- a/downloaded_files/SBES130_Lecture-35340.xlsx
+++ b/downloaded_files/SBES130_Lecture-35340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ashraqat Ahmed Abd elrazak Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200324</x:t>
   </x:si>
   <x:si>
@@ -94,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Abdulla Mohamed Bekhit Abdel Azeem Nussir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>4250185</x:t>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -790,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4210917824</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45908.4210917824</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45907.4232127315</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6661828356</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45907.6661828356</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650699421</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.6650699421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4240391204</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4177296296</x:v>
+        <x:v>45907.4240391204</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45908.4177296296</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES130_Lecture-35340.xlsx
+++ b/downloaded_files/SBES130_Lecture-35340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,69 @@
     <x:t>Ashraqat Ahmed Abd elrazak Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنة تامر محمد شوقي الإختيار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amena Tamer Mohamed Shawky Elekhtyar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم اسامه محمد عبدالفتاح عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جني وليد محمد رأفت محمود صلاح الدين رأفت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Waleed Mohamed raafat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>چيسكا اسحق عبد الملاك بانوب عبد الملاك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jissca Isaac Abdelmalak Banoub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان وائل عبد الحميد محمد هلال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Wael Abdelhameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد عوض علي عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Awad Ali Awad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220244</x:t>
   </x:si>
   <x:si>
@@ -141,6 +204,15 @@
     <x:t>karim Nasser Abdelhamid Abdelwahab Soliman</x:t>
   </x:si>
   <x:si>
+    <x:t>1240350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لبنى إبراهيم أحمد إبراهيم  محمد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lobna Ibrahim Ahmed Ibrahim Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250187</x:t>
   </x:si>
   <x:si>
@@ -150,6 +222,24 @@
     <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
   </x:si>
   <x:si>
+    <x:t>1210374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مؤمن ايهاب مصطفى السيد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moamen Ihab Moustafa Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايا رامى عصام الدين عبد العزيز عبد الحق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Ramy Essam El Din Abd El Aziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250192</x:t>
   </x:si>
   <x:si>
@@ -168,6 +258,24 @@
     <x:t>Mohamed Alaa Mohamed Elbadry</x:t>
   </x:si>
   <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم عمرو احمد جمعه محمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Amr Ahmed Gomaa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220209</x:t>
   </x:si>
   <x:si>
@@ -204,6 +312,24 @@
     <x:t>Mohaned Yasser Moustafa Elbohy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميرنا  عمرو محمد ربيع صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Merna Amr Saber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان كريم عادل علي الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nourhan Karim Adel Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230128</x:t>
   </x:si>
   <x:si>
@@ -213,6 +339,15 @@
     <x:t>Wessam Waleed Samir Metwally</x:t>
   </x:si>
   <x:si>
+    <x:t>1240162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى احمد سعد عبدالحميد شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahia Ahmed Saad Abdulhameed Shaheen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220294</x:t>
   </x:si>
   <x:si>
@@ -220,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Yehia Zakria Fawzi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يمنى غلاب محمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yumna  Ghallab Mohamed Aly</x:t>
   </x:si>
   <x:si>
     <x:t>2250007</x:t>
@@ -353,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -661,7 +805,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.100625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.370625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -808,7 +952,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45927.4146773495</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +984,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45927.5283177083</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +1016,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4210917824</x:v>
+        <x:v>45927.4166114236</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +1048,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45927.4188210995</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +1080,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45927.4616120718</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +1112,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45927.4157867708</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1144,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6661828356</x:v>
+        <x:v>45908.4210917824</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45907.4232127315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650699421</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.6661828356</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45927.5668111111</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4240391204</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45927.4629790509</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4177296296</x:v>
+        <x:v>45927.4144635764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1466,6 +1610,518 @@
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
     </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45918.5069047454</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6650699421</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.4329827546</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45927.4355074884</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.4150543634</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6671960648</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.4145929051</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.665184456</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4167324074</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4372222222</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6671912037</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45927.4912581366</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4240391204</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45927.4145309838</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45908.4177296296</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1478,6 +2134,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Basics of Computer Architecture (SBES130) Location : [18201]18201-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES130_Lecture-35340.xlsx
+++ b/downloaded_files/SBES130_Lecture-35340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فرح محمد عشري بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
     <x:t>1240250</x:t>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1464,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6661828356</x:v>
+        <x:v>45928.5859072106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.5668111111</x:v>
+        <x:v>45907.6661828356</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45927.5668111111</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4629790509</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4144635764</x:v>
+        <x:v>45927.4629790509</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45927.4144635764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650699421</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4329827546</x:v>
+        <x:v>45907.6650699421</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4355074884</x:v>
+        <x:v>45927.4329827546</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45927.4355074884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4167324074</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4372222222</x:v>
+        <x:v>45927.4167324074</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45927.4372222222</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4912581366</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4240391204</x:v>
+        <x:v>45927.4912581366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4145309838</x:v>
+        <x:v>45907.4240391204</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45927.4145309838</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4177296296</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2130,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45908.4177296296</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES130_Lecture-35340.xlsx
+++ b/downloaded_files/SBES130_Lecture-35340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Youssef Ali Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240266</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1761,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4355074884</x:v>
+        <x:v>45929.4107082176</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45927.4355074884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4167324074</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4372222222</x:v>
+        <x:v>45927.4167324074</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45927.4372222222</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4912581366</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4240391204</x:v>
+        <x:v>45927.4912581366</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45927.4145309838</x:v>
+        <x:v>45907.4240391204</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45927.4145309838</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4177296296</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45908.4177296296</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES130_Lecture-35340.xlsx
+++ b/downloaded_files/SBES130_Lecture-35340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Saief Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شذى احمد احمد عبدالرازق احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaza Ahmed Ahmed Abdelrazekِ</x:t>
   </x:si>
   <x:si>
     <x:t>1220063</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1290,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45930.3582072917</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.479756331</x:v>
+        <x:v>45907.4232127315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45918.479756331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.5002650463</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45918.5002650463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.5859072106</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6661828356</x:v>
+        <x:v>45928.5859072106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.5668111111</x:v>
+        <x:v>45907.6661828356</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45927.5668111111</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4629790509</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4144635764</x:v>
+        <x:v>45927.4629790509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.5069047454</x:v>
+        <x:v>45927.4144635764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650699421</x:v>
+        <x:v>45918.5069047454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4329827546</x:v>
+        <x:v>45907.6650699421</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.4107082176</x:v>
+        <x:v>45927.4329827546</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4355074884</x:v>
+        <x:v>45929.4107082176</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45927.4355074884</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4167324074</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4372222222</x:v>
+        <x:v>45927.4167324074</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45927.4372222222</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4912581366</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4240391204</x:v>
+        <x:v>45927.4912581366</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.4145309838</x:v>
+        <x:v>45907.4240391204</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45927.4145309838</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4177296296</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2212,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4177296296</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
